--- a/01_data-input/wiiw/employment_activities_2.xlsx
+++ b/01_data-input/wiiw/employment_activities_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A42C279-55EE-46CC-86FD-7582723D2682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365BAE10-EFAC-4E2D-A020-CD9EC49A4519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="57">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -569,11 +569,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP61"/>
+  <dimension ref="A1:AK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -586,15 +586,15 @@
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="43" width="6" customWidth="1"/>
+    <col min="9" max="38" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -602,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -610,7 +610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -618,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -626,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -634,7 +634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -660,109 +660,94 @@
         <v>18</v>
       </c>
       <c r="I8" s="2">
-        <v>1990</v>
+        <v>1995</v>
       </c>
       <c r="J8" s="2">
-        <v>1991</v>
+        <v>1996</v>
       </c>
       <c r="K8" s="2">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="L8" s="2">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="M8" s="2">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="N8" s="2">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="O8" s="2">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="P8" s="2">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="Q8" s="2">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="R8" s="2">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="S8" s="2">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="T8" s="2">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="U8" s="2">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="V8" s="2">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="W8" s="2">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="X8" s="2">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="Y8" s="2">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="Z8" s="2">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="AA8" s="2">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="AB8" s="2">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="AC8" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="AD8" s="2">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="AE8" s="2">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="AF8" s="2">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="AG8" s="2">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="AH8" s="2">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="AI8" s="2">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="AJ8" s="2">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="AK8" s="2">
-        <v>2018</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>2019</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>2020</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>2021</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>2022</v>
-      </c>
-      <c r="AP8" s="2">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -826,71 +811,56 @@
       <c r="U9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>27</v>
+      <c r="V9" s="3">
+        <v>694.71500000000003</v>
+      </c>
+      <c r="W9" s="3">
+        <v>701.16499999999996</v>
+      </c>
+      <c r="X9" s="3">
+        <v>695.78899999999999</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>691.03599999999994</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>686.85199999999998</v>
       </c>
       <c r="AA9" s="3">
-        <v>694.71500000000003</v>
+        <v>690.08799999999997</v>
       </c>
       <c r="AB9" s="3">
-        <v>701.16499999999996</v>
+        <v>701.25400000000002</v>
       </c>
       <c r="AC9" s="3">
-        <v>695.78899999999999</v>
+        <v>713.09799999999996</v>
       </c>
       <c r="AD9" s="3">
-        <v>691.03599999999994</v>
+        <v>725.87199999999996</v>
       </c>
       <c r="AE9" s="3">
-        <v>686.85199999999998</v>
+        <v>746.33199999999999</v>
       </c>
       <c r="AF9" s="3">
-        <v>690.08799999999997</v>
+        <v>802.33699999999999</v>
       </c>
       <c r="AG9" s="3">
-        <v>701.25400000000002</v>
+        <v>820.97400000000005</v>
       </c>
       <c r="AH9" s="3">
-        <v>713.09799999999996</v>
+        <v>812.59199999999998</v>
       </c>
       <c r="AI9" s="3">
-        <v>725.87199999999996</v>
+        <v>821.88699999999994</v>
       </c>
       <c r="AJ9" s="3">
-        <v>746.33199999999999</v>
+        <v>838.95699999999999</v>
       </c>
       <c r="AK9" s="3">
-        <v>802.33699999999999</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>820.97400000000005</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>812.59199999999998</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>821.88699999999994</v>
-      </c>
-      <c r="AO9" s="3">
-        <v>838.95699999999999</v>
-      </c>
-      <c r="AP9" s="3">
         <v>849.98599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -954,71 +924,56 @@
       <c r="U10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>27</v>
+      <c r="V10" s="3">
+        <v>16.013999999999999</v>
+      </c>
+      <c r="W10" s="3">
+        <v>15.891999999999999</v>
+      </c>
+      <c r="X10" s="3">
+        <v>15.750999999999999</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>15.896000000000001</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>15.272</v>
       </c>
       <c r="AA10" s="3">
-        <v>16.013999999999999</v>
+        <v>15.805999999999999</v>
       </c>
       <c r="AB10" s="3">
-        <v>15.891999999999999</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="AC10" s="3">
-        <v>15.750999999999999</v>
+        <v>16.446000000000002</v>
       </c>
       <c r="AD10" s="3">
-        <v>15.896000000000001</v>
+        <v>17.452999999999999</v>
       </c>
       <c r="AE10" s="3">
-        <v>15.272</v>
+        <v>17.585699999999999</v>
       </c>
       <c r="AF10" s="3">
-        <v>15.805999999999999</v>
+        <v>19.547000000000001</v>
       </c>
       <c r="AG10" s="3">
-        <v>16.190000000000001</v>
+        <v>19.664000000000001</v>
       </c>
       <c r="AH10" s="3">
-        <v>16.446000000000002</v>
+        <v>19.437999999999999</v>
       </c>
       <c r="AI10" s="3">
-        <v>17.452999999999999</v>
+        <v>20.135000000000002</v>
       </c>
       <c r="AJ10" s="3">
-        <v>17.585699999999999</v>
+        <v>20.327000000000002</v>
       </c>
       <c r="AK10" s="3">
-        <v>19.547000000000001</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>19.664000000000001</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>19.437999999999999</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>20.135000000000002</v>
-      </c>
-      <c r="AO10" s="3">
-        <v>20.327000000000002</v>
-      </c>
-      <c r="AP10" s="3">
         <v>19.79</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1082,71 +1037,56 @@
       <c r="U11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>27</v>
+      <c r="V11" s="3">
+        <v>20.189</v>
+      </c>
+      <c r="W11" s="3">
+        <v>20.045000000000002</v>
+      </c>
+      <c r="X11" s="3">
+        <v>19.846</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>19.696000000000002</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>19.120999999999999</v>
       </c>
       <c r="AA11" s="3">
-        <v>20.189</v>
+        <v>18.878</v>
       </c>
       <c r="AB11" s="3">
-        <v>20.045000000000002</v>
+        <v>18.856999999999999</v>
       </c>
       <c r="AC11" s="3">
-        <v>19.846</v>
+        <v>18.73</v>
       </c>
       <c r="AD11" s="3">
-        <v>19.696000000000002</v>
+        <v>18.492000000000001</v>
       </c>
       <c r="AE11" s="3">
-        <v>19.120999999999999</v>
+        <v>18.445799999999998</v>
       </c>
       <c r="AF11" s="3">
-        <v>18.878</v>
+        <v>18.05</v>
       </c>
       <c r="AG11" s="3">
-        <v>18.856999999999999</v>
+        <v>18.384</v>
       </c>
       <c r="AH11" s="3">
-        <v>18.73</v>
+        <v>17.416</v>
       </c>
       <c r="AI11" s="3">
-        <v>18.492000000000001</v>
+        <v>16.937000000000001</v>
       </c>
       <c r="AJ11" s="3">
-        <v>18.445799999999998</v>
+        <v>16.119</v>
       </c>
       <c r="AK11" s="3">
-        <v>18.05</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>18.384</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>17.416</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>16.937000000000001</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>16.119</v>
-      </c>
-      <c r="AP11" s="3">
         <v>15.875</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1210,71 +1150,56 @@
       <c r="U12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>27</v>
+      <c r="V12" s="3">
+        <v>143.56399999999999</v>
+      </c>
+      <c r="W12" s="3">
+        <v>135.58600000000001</v>
+      </c>
+      <c r="X12" s="3">
+        <v>132.501</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>130.114</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>126.408</v>
       </c>
       <c r="AA12" s="3">
-        <v>143.56399999999999</v>
+        <v>130.65899999999999</v>
       </c>
       <c r="AB12" s="3">
-        <v>135.58600000000001</v>
+        <v>136.965</v>
       </c>
       <c r="AC12" s="3">
-        <v>132.501</v>
+        <v>139.68899999999999</v>
       </c>
       <c r="AD12" s="3">
-        <v>130.114</v>
+        <v>143.619</v>
       </c>
       <c r="AE12" s="3">
-        <v>126.408</v>
+        <v>151.34729999999999</v>
       </c>
       <c r="AF12" s="3">
-        <v>130.65899999999999</v>
+        <v>165.209</v>
       </c>
       <c r="AG12" s="3">
-        <v>136.965</v>
+        <v>166.82900000000001</v>
       </c>
       <c r="AH12" s="3">
-        <v>139.68899999999999</v>
+        <v>163.26499999999999</v>
       </c>
       <c r="AI12" s="3">
-        <v>143.619</v>
+        <v>165.99799999999999</v>
       </c>
       <c r="AJ12" s="3">
-        <v>151.34729999999999</v>
+        <v>170.15</v>
       </c>
       <c r="AK12" s="3">
-        <v>165.209</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>166.82900000000001</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>163.26499999999999</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>165.99799999999999</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>170.15</v>
-      </c>
-      <c r="AP12" s="3">
         <v>169.58699999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1338,71 +1263,56 @@
       <c r="U13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>27</v>
+      <c r="V13" s="3">
+        <v>16.141999999999999</v>
+      </c>
+      <c r="W13" s="3">
+        <v>16.437000000000001</v>
+      </c>
+      <c r="X13" s="3">
+        <v>16.727</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>16.638999999999999</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>16.721</v>
       </c>
       <c r="AA13" s="3">
-        <v>16.141999999999999</v>
+        <v>16.648</v>
       </c>
       <c r="AB13" s="3">
-        <v>16.437000000000001</v>
+        <v>16.968</v>
       </c>
       <c r="AC13" s="3">
-        <v>16.727</v>
+        <v>17.045000000000002</v>
       </c>
       <c r="AD13" s="3">
-        <v>16.638999999999999</v>
+        <v>17.109000000000002</v>
       </c>
       <c r="AE13" s="3">
-        <v>16.721</v>
+        <v>17.239100000000001</v>
       </c>
       <c r="AF13" s="3">
-        <v>16.648</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="AG13" s="3">
-        <v>16.968</v>
+        <v>17.850999999999999</v>
       </c>
       <c r="AH13" s="3">
-        <v>17.045000000000002</v>
+        <v>17.347000000000001</v>
       </c>
       <c r="AI13" s="3">
-        <v>17.109000000000002</v>
+        <v>17.114000000000001</v>
       </c>
       <c r="AJ13" s="3">
-        <v>17.239100000000001</v>
+        <v>17.111000000000001</v>
       </c>
       <c r="AK13" s="3">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>17.850999999999999</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>17.347000000000001</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>17.114000000000001</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>17.111000000000001</v>
-      </c>
-      <c r="AP13" s="3">
         <v>17.350999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1466,71 +1376,56 @@
       <c r="U14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>27</v>
+      <c r="V14" s="3">
+        <v>12.48</v>
+      </c>
+      <c r="W14" s="3">
+        <v>12.263</v>
+      </c>
+      <c r="X14" s="3">
+        <v>12.44</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>12.403</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>12.744999999999999</v>
       </c>
       <c r="AA14" s="3">
-        <v>12.48</v>
+        <v>12.775</v>
       </c>
       <c r="AB14" s="3">
-        <v>12.263</v>
+        <v>12.923999999999999</v>
       </c>
       <c r="AC14" s="3">
-        <v>12.44</v>
+        <v>12.816000000000001</v>
       </c>
       <c r="AD14" s="3">
-        <v>12.403</v>
+        <v>12.943</v>
       </c>
       <c r="AE14" s="3">
-        <v>12.744999999999999</v>
+        <v>13.0526</v>
       </c>
       <c r="AF14" s="3">
-        <v>12.775</v>
+        <v>13.432</v>
       </c>
       <c r="AG14" s="3">
-        <v>12.923999999999999</v>
+        <v>13.815</v>
       </c>
       <c r="AH14" s="3">
-        <v>12.816000000000001</v>
+        <v>13.707000000000001</v>
       </c>
       <c r="AI14" s="3">
-        <v>12.943</v>
+        <v>13.784000000000001</v>
       </c>
       <c r="AJ14" s="3">
-        <v>13.0526</v>
+        <v>13.891999999999999</v>
       </c>
       <c r="AK14" s="3">
-        <v>13.432</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>13.815</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>13.707000000000001</v>
-      </c>
-      <c r="AN14" s="3">
-        <v>13.784000000000001</v>
-      </c>
-      <c r="AO14" s="3">
-        <v>13.891999999999999</v>
-      </c>
-      <c r="AP14" s="3">
         <v>13.865</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1594,71 +1489,56 @@
       <c r="U15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>27</v>
+      <c r="V15" s="3">
+        <v>42.087000000000003</v>
+      </c>
+      <c r="W15" s="3">
+        <v>41.521000000000001</v>
+      </c>
+      <c r="X15" s="3">
+        <v>39.581000000000003</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>36.841000000000001</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>34.789000000000001</v>
       </c>
       <c r="AA15" s="3">
-        <v>42.087000000000003</v>
+        <v>33.255000000000003</v>
       </c>
       <c r="AB15" s="3">
-        <v>41.521000000000001</v>
+        <v>33.134999999999998</v>
       </c>
       <c r="AC15" s="3">
-        <v>39.581000000000003</v>
+        <v>32.927</v>
       </c>
       <c r="AD15" s="3">
-        <v>36.841000000000001</v>
+        <v>33.582000000000001</v>
       </c>
       <c r="AE15" s="3">
-        <v>34.789000000000001</v>
+        <v>33.794699999999999</v>
       </c>
       <c r="AF15" s="3">
-        <v>33.255000000000003</v>
+        <v>38.045999999999999</v>
       </c>
       <c r="AG15" s="3">
-        <v>33.134999999999998</v>
+        <v>39.582000000000001</v>
       </c>
       <c r="AH15" s="3">
-        <v>32.927</v>
+        <v>40.706000000000003</v>
       </c>
       <c r="AI15" s="3">
-        <v>33.582000000000001</v>
+        <v>41.277999999999999</v>
       </c>
       <c r="AJ15" s="3">
-        <v>33.794699999999999</v>
+        <v>40.744999999999997</v>
       </c>
       <c r="AK15" s="3">
-        <v>38.045999999999999</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>39.582000000000001</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>40.706000000000003</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>41.277999999999999</v>
-      </c>
-      <c r="AO15" s="3">
-        <v>40.744999999999997</v>
-      </c>
-      <c r="AP15" s="3">
         <v>40.78</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1722,71 +1602,56 @@
       <c r="U16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>27</v>
+      <c r="V16" s="3">
+        <v>124.798</v>
+      </c>
+      <c r="W16" s="3">
+        <v>130.029</v>
+      </c>
+      <c r="X16" s="3">
+        <v>130.357</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>127.973</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>125.877</v>
       </c>
       <c r="AA16" s="3">
-        <v>124.798</v>
+        <v>128.40600000000001</v>
       </c>
       <c r="AB16" s="3">
-        <v>130.029</v>
+        <v>125.152</v>
       </c>
       <c r="AC16" s="3">
-        <v>130.357</v>
+        <v>127.23399999999999</v>
       </c>
       <c r="AD16" s="3">
-        <v>127.973</v>
+        <v>131.18799999999999</v>
       </c>
       <c r="AE16" s="3">
-        <v>125.877</v>
+        <v>134.45259999999999</v>
       </c>
       <c r="AF16" s="3">
-        <v>128.40600000000001</v>
+        <v>148.02699999999999</v>
       </c>
       <c r="AG16" s="3">
-        <v>125.152</v>
+        <v>151.25399999999999</v>
       </c>
       <c r="AH16" s="3">
-        <v>127.23399999999999</v>
+        <v>148.25800000000001</v>
       </c>
       <c r="AI16" s="3">
-        <v>131.18799999999999</v>
+        <v>147.88900000000001</v>
       </c>
       <c r="AJ16" s="3">
-        <v>134.45259999999999</v>
+        <v>152.209</v>
       </c>
       <c r="AK16" s="3">
-        <v>148.02699999999999</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>151.25399999999999</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>148.25800000000001</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>147.88900000000001</v>
-      </c>
-      <c r="AO16" s="3">
-        <v>152.209</v>
-      </c>
-      <c r="AP16" s="3">
         <v>154.334</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1850,71 +1715,56 @@
       <c r="U17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>27</v>
+      <c r="V17" s="3">
+        <v>34.128999999999998</v>
+      </c>
+      <c r="W17" s="3">
+        <v>34.57</v>
+      </c>
+      <c r="X17" s="3">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>35.457999999999998</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>37.548000000000002</v>
       </c>
       <c r="AA17" s="3">
-        <v>34.128999999999998</v>
+        <v>34.43</v>
       </c>
       <c r="AB17" s="3">
-        <v>34.57</v>
+        <v>35.109000000000002</v>
       </c>
       <c r="AC17" s="3">
-        <v>34.369999999999997</v>
+        <v>35.767000000000003</v>
       </c>
       <c r="AD17" s="3">
-        <v>35.457999999999998</v>
+        <v>35.787999999999997</v>
       </c>
       <c r="AE17" s="3">
-        <v>37.548000000000002</v>
+        <v>35.743299999999998</v>
       </c>
       <c r="AF17" s="3">
-        <v>34.43</v>
+        <v>37.082000000000001</v>
       </c>
       <c r="AG17" s="3">
-        <v>35.109000000000002</v>
+        <v>38.417999999999999</v>
       </c>
       <c r="AH17" s="3">
-        <v>35.767000000000003</v>
+        <v>37.695</v>
       </c>
       <c r="AI17" s="3">
-        <v>35.787999999999997</v>
+        <v>37.954999999999998</v>
       </c>
       <c r="AJ17" s="3">
-        <v>35.743299999999998</v>
+        <v>38.268999999999998</v>
       </c>
       <c r="AK17" s="3">
-        <v>37.082000000000001</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>38.417999999999999</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>37.695</v>
-      </c>
-      <c r="AN17" s="3">
-        <v>37.954999999999998</v>
-      </c>
-      <c r="AO17" s="3">
-        <v>38.268999999999998</v>
-      </c>
-      <c r="AP17" s="3">
         <v>39.194000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1978,71 +1828,56 @@
       <c r="U18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>27</v>
+      <c r="V18" s="3">
+        <v>33.369999999999997</v>
+      </c>
+      <c r="W18" s="3">
+        <v>32.737000000000002</v>
+      </c>
+      <c r="X18" s="3">
+        <v>31.376999999999999</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>29.707999999999998</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>27.863</v>
       </c>
       <c r="AA18" s="3">
-        <v>33.369999999999997</v>
+        <v>30.625</v>
       </c>
       <c r="AB18" s="3">
-        <v>32.737000000000002</v>
+        <v>32.268999999999998</v>
       </c>
       <c r="AC18" s="3">
-        <v>31.376999999999999</v>
+        <v>33.029000000000003</v>
       </c>
       <c r="AD18" s="3">
-        <v>29.707999999999998</v>
+        <v>35.018999999999998</v>
       </c>
       <c r="AE18" s="3">
-        <v>27.863</v>
+        <v>37.216700000000003</v>
       </c>
       <c r="AF18" s="3">
-        <v>30.625</v>
+        <v>39.884</v>
       </c>
       <c r="AG18" s="3">
-        <v>32.268999999999998</v>
+        <v>41.4</v>
       </c>
       <c r="AH18" s="3">
-        <v>33.029000000000003</v>
+        <v>38.856999999999999</v>
       </c>
       <c r="AI18" s="3">
-        <v>35.018999999999998</v>
+        <v>38.567999999999998</v>
       </c>
       <c r="AJ18" s="3">
-        <v>37.216700000000003</v>
+        <v>39.604999999999997</v>
       </c>
       <c r="AK18" s="3">
-        <v>39.884</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>41.4</v>
-      </c>
-      <c r="AM18" s="3">
-        <v>38.856999999999999</v>
-      </c>
-      <c r="AN18" s="3">
-        <v>38.567999999999998</v>
-      </c>
-      <c r="AO18" s="3">
-        <v>39.604999999999997</v>
-      </c>
-      <c r="AP18" s="3">
         <v>41.209000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2106,71 +1941,56 @@
       <c r="U19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>27</v>
+      <c r="V19" s="3">
+        <v>15.555999999999999</v>
+      </c>
+      <c r="W19" s="3">
+        <v>16.611999999999998</v>
+      </c>
+      <c r="X19" s="3">
+        <v>16.888000000000002</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>17.251999999999999</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>17.315999999999999</v>
       </c>
       <c r="AA19" s="3">
-        <v>15.555999999999999</v>
+        <v>17.596</v>
       </c>
       <c r="AB19" s="3">
-        <v>16.611999999999998</v>
+        <v>17.960999999999999</v>
       </c>
       <c r="AC19" s="3">
-        <v>16.888000000000002</v>
+        <v>18.286000000000001</v>
       </c>
       <c r="AD19" s="3">
-        <v>17.251999999999999</v>
+        <v>18.285</v>
       </c>
       <c r="AE19" s="3">
-        <v>17.315999999999999</v>
+        <v>18.753299999999999</v>
       </c>
       <c r="AF19" s="3">
-        <v>17.596</v>
+        <v>20.486000000000001</v>
       </c>
       <c r="AG19" s="3">
-        <v>17.960999999999999</v>
+        <v>21.963000000000001</v>
       </c>
       <c r="AH19" s="3">
-        <v>18.286000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="AI19" s="3">
-        <v>18.285</v>
+        <v>25.149000000000001</v>
       </c>
       <c r="AJ19" s="3">
-        <v>18.753299999999999</v>
+        <v>27.462</v>
       </c>
       <c r="AK19" s="3">
-        <v>20.486000000000001</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>21.963000000000001</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>22.8</v>
-      </c>
-      <c r="AN19" s="3">
-        <v>25.149000000000001</v>
-      </c>
-      <c r="AO19" s="3">
-        <v>27.462</v>
-      </c>
-      <c r="AP19" s="3">
         <v>29.12</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2234,71 +2054,56 @@
       <c r="U20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>27</v>
+      <c r="V20" s="3">
+        <v>13.975</v>
+      </c>
+      <c r="W20" s="3">
+        <v>15.75</v>
+      </c>
+      <c r="X20" s="3">
+        <v>16.207999999999998</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>16.074999999999999</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>16.555</v>
       </c>
       <c r="AA20" s="3">
-        <v>13.975</v>
+        <v>16.466999999999999</v>
       </c>
       <c r="AB20" s="3">
-        <v>15.75</v>
+        <v>16.440999999999999</v>
       </c>
       <c r="AC20" s="3">
-        <v>16.207999999999998</v>
+        <v>16.123000000000001</v>
       </c>
       <c r="AD20" s="3">
-        <v>16.074999999999999</v>
+        <v>15.875999999999999</v>
       </c>
       <c r="AE20" s="3">
-        <v>16.555</v>
+        <v>16.192</v>
       </c>
       <c r="AF20" s="3">
-        <v>16.466999999999999</v>
+        <v>17.902999999999999</v>
       </c>
       <c r="AG20" s="3">
-        <v>16.440999999999999</v>
+        <v>18.262</v>
       </c>
       <c r="AH20" s="3">
-        <v>16.123000000000001</v>
+        <v>18.25</v>
       </c>
       <c r="AI20" s="3">
-        <v>15.875999999999999</v>
+        <v>18.177</v>
       </c>
       <c r="AJ20" s="3">
-        <v>16.192</v>
+        <v>18.152000000000001</v>
       </c>
       <c r="AK20" s="3">
-        <v>17.902999999999999</v>
-      </c>
-      <c r="AL20" s="3">
-        <v>18.262</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>18.25</v>
-      </c>
-      <c r="AN20" s="3">
-        <v>18.177</v>
-      </c>
-      <c r="AO20" s="3">
-        <v>18.152000000000001</v>
-      </c>
-      <c r="AP20" s="3">
         <v>18.245000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2362,71 +2167,56 @@
       <c r="U21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>27</v>
+      <c r="V21" s="3">
+        <v>4.3730000000000002</v>
+      </c>
+      <c r="W21" s="3">
+        <v>2.9820000000000002</v>
+      </c>
+      <c r="X21" s="3">
+        <v>2.9369999999999998</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>2.4929999999999999</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>2.1070000000000002</v>
       </c>
       <c r="AA21" s="3">
-        <v>4.3730000000000002</v>
+        <v>2.2690000000000001</v>
       </c>
       <c r="AB21" s="3">
-        <v>2.9820000000000002</v>
+        <v>2.1989999999999998</v>
       </c>
       <c r="AC21" s="3">
-        <v>2.9369999999999998</v>
+        <v>2.5310000000000001</v>
       </c>
       <c r="AD21" s="3">
-        <v>2.4929999999999999</v>
+        <v>2.8220000000000001</v>
       </c>
       <c r="AE21" s="3">
-        <v>2.1070000000000002</v>
+        <v>2.641</v>
       </c>
       <c r="AF21" s="3">
-        <v>2.2690000000000001</v>
+        <v>3.5950000000000002</v>
       </c>
       <c r="AG21" s="3">
-        <v>2.1989999999999998</v>
+        <v>3.903</v>
       </c>
       <c r="AH21" s="3">
-        <v>2.5310000000000001</v>
+        <v>3.79</v>
       </c>
       <c r="AI21" s="3">
-        <v>2.8220000000000001</v>
+        <v>3.5009999999999999</v>
       </c>
       <c r="AJ21" s="3">
-        <v>2.641</v>
+        <v>3.2269999999999999</v>
       </c>
       <c r="AK21" s="3">
-        <v>3.5950000000000002</v>
-      </c>
-      <c r="AL21" s="3">
-        <v>3.903</v>
-      </c>
-      <c r="AM21" s="3">
-        <v>3.79</v>
-      </c>
-      <c r="AN21" s="3">
-        <v>3.5009999999999999</v>
-      </c>
-      <c r="AO21" s="3">
-        <v>3.2269999999999999</v>
-      </c>
-      <c r="AP21" s="3">
         <v>3.47</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2490,71 +2280,56 @@
       <c r="U22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>27</v>
+      <c r="V22" s="3">
+        <v>17.661000000000001</v>
+      </c>
+      <c r="W22" s="3">
+        <v>18.867999999999999</v>
+      </c>
+      <c r="X22" s="3">
+        <v>17.882999999999999</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>18.202000000000002</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>18.431999999999999</v>
       </c>
       <c r="AA22" s="3">
-        <v>17.661000000000001</v>
+        <v>20.512</v>
       </c>
       <c r="AB22" s="3">
-        <v>18.867999999999999</v>
+        <v>20.536999999999999</v>
       </c>
       <c r="AC22" s="3">
-        <v>17.882999999999999</v>
+        <v>21.481999999999999</v>
       </c>
       <c r="AD22" s="3">
-        <v>18.202000000000002</v>
+        <v>22.033000000000001</v>
       </c>
       <c r="AE22" s="3">
-        <v>18.431999999999999</v>
+        <v>21.401499999999999</v>
       </c>
       <c r="AF22" s="3">
-        <v>20.512</v>
+        <v>24.672999999999998</v>
       </c>
       <c r="AG22" s="3">
-        <v>20.536999999999999</v>
+        <v>24.888999999999999</v>
       </c>
       <c r="AH22" s="3">
-        <v>21.481999999999999</v>
+        <v>24.972999999999999</v>
       </c>
       <c r="AI22" s="3">
-        <v>22.033000000000001</v>
+        <v>25.98</v>
       </c>
       <c r="AJ22" s="3">
-        <v>21.401499999999999</v>
+        <v>26.771000000000001</v>
       </c>
       <c r="AK22" s="3">
-        <v>24.672999999999998</v>
-      </c>
-      <c r="AL22" s="3">
-        <v>24.888999999999999</v>
-      </c>
-      <c r="AM22" s="3">
-        <v>24.972999999999999</v>
-      </c>
-      <c r="AN22" s="3">
-        <v>25.98</v>
-      </c>
-      <c r="AO22" s="3">
-        <v>26.771000000000001</v>
-      </c>
-      <c r="AP22" s="3">
         <v>27.843</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2618,71 +2393,56 @@
       <c r="U23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>27</v>
+      <c r="V23" s="3">
+        <v>7.1109999999999998</v>
+      </c>
+      <c r="W23" s="3">
+        <v>7.9039999999999999</v>
+      </c>
+      <c r="X23" s="3">
+        <v>8.5909999999999993</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>8.8680000000000003</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>9.2859999999999996</v>
       </c>
       <c r="AA23" s="3">
-        <v>7.1109999999999998</v>
+        <v>9.7119999999999997</v>
       </c>
       <c r="AB23" s="3">
-        <v>7.9039999999999999</v>
+        <v>10.478999999999999</v>
       </c>
       <c r="AC23" s="3">
-        <v>8.5909999999999993</v>
+        <v>11.484999999999999</v>
       </c>
       <c r="AD23" s="3">
-        <v>8.8680000000000003</v>
+        <v>12.316000000000001</v>
       </c>
       <c r="AE23" s="3">
-        <v>9.2859999999999996</v>
+        <v>12.9223</v>
       </c>
       <c r="AF23" s="3">
-        <v>9.7119999999999997</v>
+        <v>14.945</v>
       </c>
       <c r="AG23" s="3">
-        <v>10.478999999999999</v>
+        <v>15.957000000000001</v>
       </c>
       <c r="AH23" s="3">
-        <v>11.484999999999999</v>
+        <v>16.224</v>
       </c>
       <c r="AI23" s="3">
-        <v>12.316000000000001</v>
+        <v>17.152999999999999</v>
       </c>
       <c r="AJ23" s="3">
-        <v>12.9223</v>
+        <v>18.073</v>
       </c>
       <c r="AK23" s="3">
-        <v>14.945</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>15.957000000000001</v>
-      </c>
-      <c r="AM23" s="3">
-        <v>16.224</v>
-      </c>
-      <c r="AN23" s="3">
-        <v>17.152999999999999</v>
-      </c>
-      <c r="AO23" s="3">
-        <v>18.073</v>
-      </c>
-      <c r="AP23" s="3">
         <v>19.186</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2746,71 +2506,56 @@
       <c r="U24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z24" s="3" t="s">
-        <v>27</v>
+      <c r="V24" s="3">
+        <v>67.888000000000005</v>
+      </c>
+      <c r="W24" s="3">
+        <v>70.757999999999996</v>
+      </c>
+      <c r="X24" s="3">
+        <v>71.158000000000001</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>71.866</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>72.965000000000003</v>
       </c>
       <c r="AA24" s="3">
-        <v>67.888000000000005</v>
+        <v>73.855000000000004</v>
       </c>
       <c r="AB24" s="3">
-        <v>70.757999999999996</v>
+        <v>74.186999999999998</v>
       </c>
       <c r="AC24" s="3">
-        <v>71.158000000000001</v>
+        <v>74.709000000000003</v>
       </c>
       <c r="AD24" s="3">
-        <v>71.866</v>
+        <v>74.055999999999997</v>
       </c>
       <c r="AE24" s="3">
-        <v>72.965000000000003</v>
+        <v>74.502799999999993</v>
       </c>
       <c r="AF24" s="3">
-        <v>73.855000000000004</v>
+        <v>73.709999999999994</v>
       </c>
       <c r="AG24" s="3">
-        <v>74.186999999999998</v>
+        <v>75.381</v>
       </c>
       <c r="AH24" s="3">
-        <v>74.709000000000003</v>
+        <v>76.111000000000004</v>
       </c>
       <c r="AI24" s="3">
-        <v>74.055999999999997</v>
+        <v>76.120999999999995</v>
       </c>
       <c r="AJ24" s="3">
-        <v>74.502799999999993</v>
+        <v>76.373999999999995</v>
       </c>
       <c r="AK24" s="3">
-        <v>73.709999999999994</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>75.381</v>
-      </c>
-      <c r="AM24" s="3">
-        <v>76.111000000000004</v>
-      </c>
-      <c r="AN24" s="3">
-        <v>76.120999999999995</v>
-      </c>
-      <c r="AO24" s="3">
-        <v>76.373999999999995</v>
-      </c>
-      <c r="AP24" s="3">
         <v>76.575000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2874,71 +2619,56 @@
       <c r="U25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>27</v>
+      <c r="V25" s="3">
+        <v>54.652999999999999</v>
+      </c>
+      <c r="W25" s="3">
+        <v>56.978000000000002</v>
+      </c>
+      <c r="X25" s="3">
+        <v>58.488999999999997</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>60.341000000000001</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>61.593000000000004</v>
       </c>
       <c r="AA25" s="3">
-        <v>54.652999999999999</v>
+        <v>62.496000000000002</v>
       </c>
       <c r="AB25" s="3">
-        <v>56.978000000000002</v>
+        <v>63.344999999999999</v>
       </c>
       <c r="AC25" s="3">
-        <v>58.488999999999997</v>
+        <v>64.236000000000004</v>
       </c>
       <c r="AD25" s="3">
-        <v>60.341000000000001</v>
+        <v>64.161000000000001</v>
       </c>
       <c r="AE25" s="3">
-        <v>61.593000000000004</v>
+        <v>65.276700000000005</v>
       </c>
       <c r="AF25" s="3">
-        <v>62.496000000000002</v>
+        <v>66.584000000000003</v>
       </c>
       <c r="AG25" s="3">
-        <v>63.344999999999999</v>
+        <v>67.513000000000005</v>
       </c>
       <c r="AH25" s="3">
-        <v>64.236000000000004</v>
+        <v>67.213999999999999</v>
       </c>
       <c r="AI25" s="3">
-        <v>64.161000000000001</v>
+        <v>67.887</v>
       </c>
       <c r="AJ25" s="3">
-        <v>65.276700000000005</v>
+        <v>68.945999999999998</v>
       </c>
       <c r="AK25" s="3">
-        <v>66.584000000000003</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>67.513000000000005</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>67.213999999999999</v>
-      </c>
-      <c r="AN25" s="3">
-        <v>67.887</v>
-      </c>
-      <c r="AO25" s="3">
-        <v>68.945999999999998</v>
-      </c>
-      <c r="AP25" s="3">
         <v>70.504999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3002,71 +2732,56 @@
       <c r="U26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>27</v>
+      <c r="V26" s="3">
+        <v>42.006999999999998</v>
+      </c>
+      <c r="W26" s="3">
+        <v>43.484000000000002</v>
+      </c>
+      <c r="X26" s="3">
+        <v>44.198999999999998</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>45.459000000000003</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>46.612000000000002</v>
       </c>
       <c r="AA26" s="3">
-        <v>42.006999999999998</v>
+        <v>47.423000000000002</v>
       </c>
       <c r="AB26" s="3">
-        <v>43.484000000000002</v>
+        <v>48.12</v>
       </c>
       <c r="AC26" s="3">
-        <v>44.198999999999998</v>
+        <v>49.21</v>
       </c>
       <c r="AD26" s="3">
-        <v>45.459000000000003</v>
+        <v>49.38</v>
       </c>
       <c r="AE26" s="3">
-        <v>46.612000000000002</v>
+        <v>50.935499999999998</v>
       </c>
       <c r="AF26" s="3">
-        <v>47.423000000000002</v>
+        <v>53.115000000000002</v>
       </c>
       <c r="AG26" s="3">
-        <v>48.12</v>
+        <v>54.466999999999999</v>
       </c>
       <c r="AH26" s="3">
-        <v>49.21</v>
+        <v>55.845999999999997</v>
       </c>
       <c r="AI26" s="3">
-        <v>49.38</v>
+        <v>57.354999999999997</v>
       </c>
       <c r="AJ26" s="3">
-        <v>50.935499999999998</v>
+        <v>59.039000000000001</v>
       </c>
       <c r="AK26" s="3">
-        <v>53.115000000000002</v>
-      </c>
-      <c r="AL26" s="3">
-        <v>54.466999999999999</v>
-      </c>
-      <c r="AM26" s="3">
-        <v>55.845999999999997</v>
-      </c>
-      <c r="AN26" s="3">
-        <v>57.354999999999997</v>
-      </c>
-      <c r="AO26" s="3">
-        <v>59.039000000000001</v>
-      </c>
-      <c r="AP26" s="3">
         <v>60.097000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -3130,71 +2845,56 @@
       <c r="U27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>27</v>
+      <c r="V27" s="3">
+        <v>6.2009999999999996</v>
+      </c>
+      <c r="W27" s="3">
+        <v>7.0430000000000001</v>
+      </c>
+      <c r="X27" s="3">
+        <v>7.4409999999999998</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>7.3769999999999998</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>7.4960000000000004</v>
       </c>
       <c r="AA27" s="3">
-        <v>6.2009999999999996</v>
+        <v>7.9290000000000003</v>
       </c>
       <c r="AB27" s="3">
-        <v>7.0430000000000001</v>
+        <v>8.9749999999999996</v>
       </c>
       <c r="AC27" s="3">
-        <v>7.4409999999999998</v>
+        <v>9.5549999999999997</v>
       </c>
       <c r="AD27" s="3">
-        <v>7.3769999999999998</v>
+        <v>9.9489999999999998</v>
       </c>
       <c r="AE27" s="3">
-        <v>7.4960000000000004</v>
+        <v>10.7849</v>
       </c>
       <c r="AF27" s="3">
-        <v>7.9290000000000003</v>
+        <v>14.343999999999999</v>
       </c>
       <c r="AG27" s="3">
-        <v>8.9749999999999996</v>
+        <v>14.791</v>
       </c>
       <c r="AH27" s="3">
-        <v>9.5549999999999997</v>
+        <v>13.946</v>
       </c>
       <c r="AI27" s="3">
-        <v>9.9489999999999998</v>
+        <v>14.28</v>
       </c>
       <c r="AJ27" s="3">
-        <v>10.7849</v>
+        <v>15.039</v>
       </c>
       <c r="AK27" s="3">
-        <v>14.343999999999999</v>
-      </c>
-      <c r="AL27" s="3">
-        <v>14.791</v>
-      </c>
-      <c r="AM27" s="3">
-        <v>13.946</v>
-      </c>
-      <c r="AN27" s="3">
-        <v>14.28</v>
-      </c>
-      <c r="AO27" s="3">
-        <v>15.039</v>
-      </c>
-      <c r="AP27" s="3">
         <v>15.099</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -3258,71 +2958,56 @@
       <c r="U28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>27</v>
+      <c r="V28" s="3">
+        <v>9.8689999999999998</v>
+      </c>
+      <c r="W28" s="3">
+        <v>9.5449999999999999</v>
+      </c>
+      <c r="X28" s="3">
+        <v>9.2880000000000003</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>8.6539999999999999</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>8.9920000000000009</v>
       </c>
       <c r="AA28" s="3">
-        <v>9.8689999999999998</v>
+        <v>10.348000000000001</v>
       </c>
       <c r="AB28" s="3">
-        <v>9.5449999999999999</v>
+        <v>11.442</v>
       </c>
       <c r="AC28" s="3">
-        <v>9.2880000000000003</v>
+        <v>11.798999999999999</v>
       </c>
       <c r="AD28" s="3">
-        <v>8.6539999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="AE28" s="3">
-        <v>8.9920000000000009</v>
+        <v>14.044199999999901</v>
       </c>
       <c r="AF28" s="3">
-        <v>10.348000000000001</v>
+        <v>16.033999999999999</v>
       </c>
       <c r="AG28" s="3">
-        <v>11.442</v>
+        <v>16.651</v>
       </c>
       <c r="AH28" s="3">
-        <v>11.798999999999999</v>
+        <v>16.75</v>
       </c>
       <c r="AI28" s="3">
-        <v>11.8</v>
+        <v>16.625</v>
       </c>
       <c r="AJ28" s="3">
-        <v>14.044199999999901</v>
+        <v>17.448</v>
       </c>
       <c r="AK28" s="3">
-        <v>16.033999999999999</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>16.651</v>
-      </c>
-      <c r="AM28" s="3">
-        <v>16.75</v>
-      </c>
-      <c r="AN28" s="3">
-        <v>16.625</v>
-      </c>
-      <c r="AO28" s="3">
-        <v>17.448</v>
-      </c>
-      <c r="AP28" s="3">
         <v>17.861000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -3386,71 +3071,56 @@
       <c r="U29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>27</v>
+      <c r="V29" s="3">
+        <v>88.843000000000004</v>
+      </c>
+      <c r="W29" s="3">
+        <v>104.723</v>
+      </c>
+      <c r="X29" s="3">
+        <v>115.107</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>123.218</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>145.43299999999999</v>
       </c>
       <c r="AA29" s="3">
-        <v>88.843000000000004</v>
+        <v>149.886</v>
       </c>
       <c r="AB29" s="3">
-        <v>104.723</v>
+        <v>145.73599999999999</v>
       </c>
       <c r="AC29" s="3">
-        <v>115.107</v>
+        <v>155.13499999999999</v>
       </c>
       <c r="AD29" s="3">
-        <v>123.218</v>
+        <v>156.50399999999999</v>
       </c>
       <c r="AE29" s="3">
-        <v>145.43299999999999</v>
+        <v>167.095</v>
       </c>
       <c r="AF29" s="3">
-        <v>149.886</v>
+        <v>177.852</v>
       </c>
       <c r="AG29" s="3">
-        <v>145.73599999999999</v>
+        <v>196.92400000000001</v>
       </c>
       <c r="AH29" s="3">
-        <v>155.13499999999999</v>
+        <v>210.614</v>
       </c>
       <c r="AI29" s="3">
-        <v>156.50399999999999</v>
+        <v>233.29499999999999</v>
       </c>
       <c r="AJ29" s="3">
-        <v>167.095</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>177.852</v>
-      </c>
-      <c r="AL29" s="3">
-        <v>196.92400000000001</v>
-      </c>
-      <c r="AM29" s="3">
-        <v>210.614</v>
-      </c>
-      <c r="AN29" s="3">
-        <v>233.29499999999999</v>
-      </c>
-      <c r="AO29" s="3">
         <v>252.74799999999999</v>
       </c>
-      <c r="AP29" s="3" t="s">
+      <c r="AK29" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -3514,71 +3184,56 @@
       <c r="U30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z30" s="3" t="s">
-        <v>27</v>
+      <c r="V30" s="3">
+        <v>2.9430000000000001</v>
+      </c>
+      <c r="W30" s="3">
+        <v>3.7959999999999998</v>
+      </c>
+      <c r="X30" s="3">
+        <v>3.694</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>4.2969999999999997</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>3.0270000000000001</v>
       </c>
       <c r="AA30" s="3">
-        <v>2.9430000000000001</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="AB30" s="3">
-        <v>3.7959999999999998</v>
+        <v>2.92</v>
       </c>
       <c r="AC30" s="3">
-        <v>3.694</v>
+        <v>3.0419999999999998</v>
       </c>
       <c r="AD30" s="3">
-        <v>4.2969999999999997</v>
+        <v>2.78</v>
       </c>
       <c r="AE30" s="3">
-        <v>3.0270000000000001</v>
+        <v>3.3130000000000002</v>
       </c>
       <c r="AF30" s="3">
-        <v>2.6360000000000001</v>
+        <v>3.4990000000000001</v>
       </c>
       <c r="AG30" s="3">
-        <v>2.92</v>
+        <v>3.6709999999999998</v>
       </c>
       <c r="AH30" s="3">
-        <v>3.0419999999999998</v>
+        <v>3.9670000000000001</v>
       </c>
       <c r="AI30" s="3">
-        <v>2.78</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="AJ30" s="3">
-        <v>3.3130000000000002</v>
-      </c>
-      <c r="AK30" s="3">
-        <v>3.4990000000000001</v>
-      </c>
-      <c r="AL30" s="3">
-        <v>3.6709999999999998</v>
-      </c>
-      <c r="AM30" s="3">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="AN30" s="3">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="AO30" s="3">
         <v>3.9289999999999998</v>
       </c>
-      <c r="AP30" s="3" t="s">
+      <c r="AK30" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -3642,71 +3297,56 @@
       <c r="U31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z31" s="3" t="s">
-        <v>27</v>
+      <c r="V31" s="3">
+        <v>16.183</v>
+      </c>
+      <c r="W31" s="3">
+        <v>16.748000000000001</v>
+      </c>
+      <c r="X31" s="3">
+        <v>17.827000000000002</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>19.204000000000001</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>25.213000000000001</v>
       </c>
       <c r="AA31" s="3">
-        <v>16.183</v>
+        <v>22.931999999999999</v>
       </c>
       <c r="AB31" s="3">
-        <v>16.748000000000001</v>
+        <v>22.257000000000001</v>
       </c>
       <c r="AC31" s="3">
-        <v>17.827000000000002</v>
+        <v>23.651</v>
       </c>
       <c r="AD31" s="3">
-        <v>19.204000000000001</v>
+        <v>24.457000000000001</v>
       </c>
       <c r="AE31" s="3">
-        <v>25.213000000000001</v>
+        <v>26.094999999999999</v>
       </c>
       <c r="AF31" s="3">
-        <v>22.931999999999999</v>
+        <v>27.125</v>
       </c>
       <c r="AG31" s="3">
-        <v>22.257000000000001</v>
+        <v>32.118000000000002</v>
       </c>
       <c r="AH31" s="3">
-        <v>23.651</v>
+        <v>35.084000000000003</v>
       </c>
       <c r="AI31" s="3">
-        <v>24.457000000000001</v>
+        <v>39.718000000000004</v>
       </c>
       <c r="AJ31" s="3">
-        <v>26.094999999999999</v>
-      </c>
-      <c r="AK31" s="3">
-        <v>27.125</v>
-      </c>
-      <c r="AL31" s="3">
-        <v>32.118000000000002</v>
-      </c>
-      <c r="AM31" s="3">
-        <v>35.084000000000003</v>
-      </c>
-      <c r="AN31" s="3">
-        <v>39.718000000000004</v>
-      </c>
-      <c r="AO31" s="3">
         <v>42.966000000000001</v>
       </c>
-      <c r="AP31" s="3" t="s">
+      <c r="AK31" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -3770,71 +3410,56 @@
       <c r="U32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z32" s="3" t="s">
-        <v>27</v>
+      <c r="V32" s="3">
+        <v>7.444</v>
+      </c>
+      <c r="W32" s="3">
+        <v>8.0310000000000006</v>
+      </c>
+      <c r="X32" s="3">
+        <v>8.2509999999999994</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>8.9459999999999997</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>9.1039999999999992</v>
       </c>
       <c r="AA32" s="3">
-        <v>7.444</v>
+        <v>9.0250000000000004</v>
       </c>
       <c r="AB32" s="3">
-        <v>8.0310000000000006</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="AC32" s="3">
-        <v>8.2509999999999994</v>
+        <v>8.0449999999999999</v>
       </c>
       <c r="AD32" s="3">
-        <v>8.9459999999999997</v>
+        <v>7.77</v>
       </c>
       <c r="AE32" s="3">
-        <v>9.1039999999999992</v>
+        <v>7.4669999999999996</v>
       </c>
       <c r="AF32" s="3">
-        <v>9.0250000000000004</v>
+        <v>7.306</v>
       </c>
       <c r="AG32" s="3">
-        <v>8.4700000000000006</v>
+        <v>7.1589999999999998</v>
       </c>
       <c r="AH32" s="3">
-        <v>8.0449999999999999</v>
+        <v>7.0359999999999996</v>
       </c>
       <c r="AI32" s="3">
-        <v>7.77</v>
+        <v>6.85</v>
       </c>
       <c r="AJ32" s="3">
-        <v>7.4669999999999996</v>
-      </c>
-      <c r="AK32" s="3">
-        <v>7.306</v>
-      </c>
-      <c r="AL32" s="3">
-        <v>7.1589999999999998</v>
-      </c>
-      <c r="AM32" s="3">
-        <v>7.0359999999999996</v>
-      </c>
-      <c r="AN32" s="3">
-        <v>6.85</v>
-      </c>
-      <c r="AO32" s="3">
         <v>6.5609999999999999</v>
       </c>
-      <c r="AP32" s="3" t="s">
+      <c r="AK32" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -3898,71 +3523,56 @@
       <c r="U33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>27</v>
+      <c r="V33" s="3">
+        <v>4.1580000000000004</v>
+      </c>
+      <c r="W33" s="3">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="X33" s="3">
+        <v>5.3810000000000002</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>5.3449999999999998</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>5.6449999999999996</v>
       </c>
       <c r="AA33" s="3">
-        <v>4.1580000000000004</v>
+        <v>4.0469999999999997</v>
       </c>
       <c r="AB33" s="3">
-        <v>5.0620000000000003</v>
+        <v>4.53</v>
       </c>
       <c r="AC33" s="3">
-        <v>5.3810000000000002</v>
+        <v>4.38</v>
       </c>
       <c r="AD33" s="3">
-        <v>5.3449999999999998</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="AE33" s="3">
-        <v>5.6449999999999996</v>
+        <v>4.7210000000000001</v>
       </c>
       <c r="AF33" s="3">
-        <v>4.0469999999999997</v>
+        <v>4.9470000000000001</v>
       </c>
       <c r="AG33" s="3">
-        <v>4.53</v>
+        <v>5.024</v>
       </c>
       <c r="AH33" s="3">
-        <v>4.38</v>
+        <v>5.33</v>
       </c>
       <c r="AI33" s="3">
-        <v>4.5599999999999996</v>
+        <v>5.516</v>
       </c>
       <c r="AJ33" s="3">
-        <v>4.7210000000000001</v>
-      </c>
-      <c r="AK33" s="3">
-        <v>4.9470000000000001</v>
-      </c>
-      <c r="AL33" s="3">
-        <v>5.024</v>
-      </c>
-      <c r="AM33" s="3">
-        <v>5.33</v>
-      </c>
-      <c r="AN33" s="3">
-        <v>5.516</v>
-      </c>
-      <c r="AO33" s="3">
         <v>5.7210000000000001</v>
       </c>
-      <c r="AP33" s="3" t="s">
+      <c r="AK33" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -4026,71 +3636,56 @@
       <c r="U34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z34" s="3" t="s">
-        <v>27</v>
+      <c r="V34" s="3">
+        <v>7.2480000000000002</v>
+      </c>
+      <c r="W34" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="X34" s="3">
+        <v>13.676</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>14.993</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>17.779</v>
       </c>
       <c r="AA34" s="3">
-        <v>7.2480000000000002</v>
+        <v>16.297000000000001</v>
       </c>
       <c r="AB34" s="3">
-        <v>10.3</v>
+        <v>13.192</v>
       </c>
       <c r="AC34" s="3">
-        <v>13.676</v>
+        <v>15.353999999999999</v>
       </c>
       <c r="AD34" s="3">
-        <v>14.993</v>
+        <v>16.687000000000001</v>
       </c>
       <c r="AE34" s="3">
-        <v>17.779</v>
+        <v>18.206</v>
       </c>
       <c r="AF34" s="3">
-        <v>16.297000000000001</v>
+        <v>20.533000000000001</v>
       </c>
       <c r="AG34" s="3">
-        <v>13.192</v>
+        <v>19.93</v>
       </c>
       <c r="AH34" s="3">
-        <v>15.353999999999999</v>
+        <v>23.196000000000002</v>
       </c>
       <c r="AI34" s="3">
-        <v>16.687000000000001</v>
+        <v>25.498000000000001</v>
       </c>
       <c r="AJ34" s="3">
-        <v>18.206</v>
-      </c>
-      <c r="AK34" s="3">
-        <v>20.533000000000001</v>
-      </c>
-      <c r="AL34" s="3">
-        <v>19.93</v>
-      </c>
-      <c r="AM34" s="3">
-        <v>23.196000000000002</v>
-      </c>
-      <c r="AN34" s="3">
-        <v>25.498000000000001</v>
-      </c>
-      <c r="AO34" s="3">
         <v>25.957000000000001</v>
       </c>
-      <c r="AP34" s="3" t="s">
+      <c r="AK34" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -4154,71 +3749,56 @@
       <c r="U35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z35" s="3" t="s">
-        <v>27</v>
+      <c r="V35" s="3">
+        <v>27.207000000000001</v>
+      </c>
+      <c r="W35" s="3">
+        <v>31.460999999999999</v>
+      </c>
+      <c r="X35" s="3">
+        <v>35.537999999999997</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>39.459000000000003</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>47.302</v>
       </c>
       <c r="AA35" s="3">
-        <v>27.207000000000001</v>
+        <v>57.378999999999998</v>
       </c>
       <c r="AB35" s="3">
-        <v>31.460999999999999</v>
+        <v>54.295000000000002</v>
       </c>
       <c r="AC35" s="3">
-        <v>35.537999999999997</v>
+        <v>55.768000000000001</v>
       </c>
       <c r="AD35" s="3">
-        <v>39.459000000000003</v>
+        <v>54.609000000000002</v>
       </c>
       <c r="AE35" s="3">
-        <v>47.302</v>
+        <v>57.862000000000002</v>
       </c>
       <c r="AF35" s="3">
-        <v>57.378999999999998</v>
+        <v>60.348999999999997</v>
       </c>
       <c r="AG35" s="3">
-        <v>54.295000000000002</v>
+        <v>68.215000000000003</v>
       </c>
       <c r="AH35" s="3">
-        <v>55.768000000000001</v>
+        <v>73.367000000000004</v>
       </c>
       <c r="AI35" s="3">
-        <v>54.609000000000002</v>
+        <v>79.62</v>
       </c>
       <c r="AJ35" s="3">
-        <v>57.862000000000002</v>
-      </c>
-      <c r="AK35" s="3">
-        <v>60.348999999999997</v>
-      </c>
-      <c r="AL35" s="3">
-        <v>68.215000000000003</v>
-      </c>
-      <c r="AM35" s="3">
-        <v>73.367000000000004</v>
-      </c>
-      <c r="AN35" s="3">
-        <v>79.62</v>
-      </c>
-      <c r="AO35" s="3">
         <v>86.789000000000001</v>
       </c>
-      <c r="AP35" s="3" t="s">
+      <c r="AK35" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -4282,71 +3862,56 @@
       <c r="U36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z36" s="3" t="s">
-        <v>27</v>
+      <c r="V36" s="3">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="W36" s="3">
+        <v>6.7649999999999997</v>
+      </c>
+      <c r="X36" s="3">
+        <v>7.1859999999999999</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>7.6769999999999996</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>9.2029999999999994</v>
       </c>
       <c r="AA36" s="3">
-        <v>5.6719999999999997</v>
+        <v>7.0430000000000001</v>
       </c>
       <c r="AB36" s="3">
-        <v>6.7649999999999997</v>
+        <v>6.3159999999999998</v>
       </c>
       <c r="AC36" s="3">
-        <v>7.1859999999999999</v>
+        <v>6.81</v>
       </c>
       <c r="AD36" s="3">
-        <v>7.6769999999999996</v>
+        <v>6.6340000000000003</v>
       </c>
       <c r="AE36" s="3">
-        <v>9.2029999999999994</v>
+        <v>7.202</v>
       </c>
       <c r="AF36" s="3">
-        <v>7.0430000000000001</v>
+        <v>7.5309999999999997</v>
       </c>
       <c r="AG36" s="3">
-        <v>6.3159999999999998</v>
+        <v>8.1769999999999996</v>
       </c>
       <c r="AH36" s="3">
-        <v>6.81</v>
+        <v>8.8879999999999999</v>
       </c>
       <c r="AI36" s="3">
-        <v>6.6340000000000003</v>
+        <v>8.9149999999999991</v>
       </c>
       <c r="AJ36" s="3">
-        <v>7.202</v>
-      </c>
-      <c r="AK36" s="3">
-        <v>7.5309999999999997</v>
-      </c>
-      <c r="AL36" s="3">
-        <v>8.1769999999999996</v>
-      </c>
-      <c r="AM36" s="3">
-        <v>8.8879999999999999</v>
-      </c>
-      <c r="AN36" s="3">
-        <v>8.9149999999999991</v>
-      </c>
-      <c r="AO36" s="3">
         <v>9.8390000000000004</v>
       </c>
-      <c r="AP36" s="3" t="s">
+      <c r="AK36" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -4410,71 +3975,56 @@
       <c r="U37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z37" s="3" t="s">
-        <v>27</v>
+      <c r="V37" s="3">
+        <v>6.4779999999999998</v>
+      </c>
+      <c r="W37" s="3">
+        <v>6.992</v>
+      </c>
+      <c r="X37" s="3">
+        <v>7.4320000000000004</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>6.3559999999999999</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>7.3890000000000002</v>
       </c>
       <c r="AA37" s="3">
-        <v>6.4779999999999998</v>
+        <v>11.173999999999999</v>
       </c>
       <c r="AB37" s="3">
-        <v>6.992</v>
+        <v>10.488</v>
       </c>
       <c r="AC37" s="3">
-        <v>7.4320000000000004</v>
+        <v>12.965</v>
       </c>
       <c r="AD37" s="3">
-        <v>6.3559999999999999</v>
+        <v>11.895</v>
       </c>
       <c r="AE37" s="3">
-        <v>7.3890000000000002</v>
+        <v>12.773</v>
       </c>
       <c r="AF37" s="3">
-        <v>11.173999999999999</v>
+        <v>13.955</v>
       </c>
       <c r="AG37" s="3">
-        <v>10.488</v>
+        <v>16.559000000000001</v>
       </c>
       <c r="AH37" s="3">
-        <v>12.965</v>
+        <v>17.902999999999999</v>
       </c>
       <c r="AI37" s="3">
-        <v>11.895</v>
+        <v>21.265999999999998</v>
       </c>
       <c r="AJ37" s="3">
-        <v>12.773</v>
-      </c>
-      <c r="AK37" s="3">
-        <v>13.955</v>
-      </c>
-      <c r="AL37" s="3">
-        <v>16.559000000000001</v>
-      </c>
-      <c r="AM37" s="3">
-        <v>17.902999999999999</v>
-      </c>
-      <c r="AN37" s="3">
-        <v>21.265999999999998</v>
-      </c>
-      <c r="AO37" s="3">
         <v>23.716999999999999</v>
       </c>
-      <c r="AP37" s="3" t="s">
+      <c r="AK37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -4538,71 +4088,56 @@
       <c r="U38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>27</v>
+      <c r="V38" s="3">
+        <v>4.2859999999999996</v>
+      </c>
+      <c r="W38" s="3">
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="X38" s="3">
+        <v>5.5270000000000001</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>5.7220000000000004</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>6.806</v>
       </c>
       <c r="AA38" s="3">
-        <v>4.2859999999999996</v>
+        <v>7.056</v>
       </c>
       <c r="AB38" s="3">
-        <v>5.1989999999999998</v>
+        <v>7.3140000000000001</v>
       </c>
       <c r="AC38" s="3">
-        <v>5.5270000000000001</v>
+        <v>8.0190000000000001</v>
       </c>
       <c r="AD38" s="3">
-        <v>5.7220000000000004</v>
+        <v>8.7140000000000004</v>
       </c>
       <c r="AE38" s="3">
-        <v>6.806</v>
+        <v>9.5969999999999995</v>
       </c>
       <c r="AF38" s="3">
-        <v>7.056</v>
+        <v>10.603</v>
       </c>
       <c r="AG38" s="3">
-        <v>7.3140000000000001</v>
+        <v>11.272</v>
       </c>
       <c r="AH38" s="3">
-        <v>8.0190000000000001</v>
+        <v>11.845000000000001</v>
       </c>
       <c r="AI38" s="3">
-        <v>8.7140000000000004</v>
+        <v>13.978999999999999</v>
       </c>
       <c r="AJ38" s="3">
-        <v>9.5969999999999995</v>
-      </c>
-      <c r="AK38" s="3">
-        <v>10.603</v>
-      </c>
-      <c r="AL38" s="3">
-        <v>11.272</v>
-      </c>
-      <c r="AM38" s="3">
-        <v>11.845000000000001</v>
-      </c>
-      <c r="AN38" s="3">
-        <v>13.978999999999999</v>
-      </c>
-      <c r="AO38" s="3">
         <v>15.335000000000001</v>
       </c>
-      <c r="AP38" s="3" t="s">
+      <c r="AK38" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -4681,56 +4216,41 @@
       <c r="Z39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE39" s="3" t="s">
-        <v>27</v>
+      <c r="AA39" s="3">
+        <v>621.51800000000003</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>613.52599999999995</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>601.4</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>594.21900000000005</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>598.947</v>
       </c>
       <c r="AF39" s="3">
-        <v>621.51800000000003</v>
+        <v>613.048</v>
       </c>
       <c r="AG39" s="3">
-        <v>613.52599999999995</v>
+        <v>625.20299999999997</v>
       </c>
       <c r="AH39" s="3">
-        <v>601.4</v>
+        <v>601.59699999999998</v>
       </c>
       <c r="AI39" s="3">
-        <v>594.21900000000005</v>
+        <v>622.65200000000004</v>
       </c>
       <c r="AJ39" s="3">
-        <v>598.947</v>
-      </c>
-      <c r="AK39" s="3">
-        <v>613.048</v>
-      </c>
-      <c r="AL39" s="3">
-        <v>625.20299999999997</v>
-      </c>
-      <c r="AM39" s="3">
-        <v>601.59699999999998</v>
-      </c>
-      <c r="AN39" s="3">
-        <v>622.65200000000004</v>
-      </c>
-      <c r="AO39" s="3">
         <v>623.601</v>
       </c>
-      <c r="AP39" s="3" t="s">
+      <c r="AK39" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -4809,56 +4329,41 @@
       <c r="Z40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE40" s="3" t="s">
-        <v>27</v>
+      <c r="AA40" s="3">
+        <v>39.537999999999997</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>39.265000000000001</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>36.76</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>36.725999999999999</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>37.603000000000002</v>
       </c>
       <c r="AF40" s="3">
-        <v>39.537999999999997</v>
+        <v>37.685000000000002</v>
       </c>
       <c r="AG40" s="3">
-        <v>39.265000000000001</v>
+        <v>36.439</v>
       </c>
       <c r="AH40" s="3">
-        <v>36.76</v>
+        <v>34.213999999999999</v>
       </c>
       <c r="AI40" s="3">
-        <v>36.725999999999999</v>
+        <v>34.473999999999997</v>
       </c>
       <c r="AJ40" s="3">
-        <v>37.603000000000002</v>
-      </c>
-      <c r="AK40" s="3">
-        <v>37.685000000000002</v>
-      </c>
-      <c r="AL40" s="3">
-        <v>36.439</v>
-      </c>
-      <c r="AM40" s="3">
-        <v>34.213999999999999</v>
-      </c>
-      <c r="AN40" s="3">
-        <v>34.473999999999997</v>
-      </c>
-      <c r="AO40" s="3">
         <v>33.868000000000002</v>
       </c>
-      <c r="AP40" s="3" t="s">
+      <c r="AK40" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -4937,56 +4442,41 @@
       <c r="Z41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE41" s="3" t="s">
-        <v>27</v>
+      <c r="AA41" s="3">
+        <v>2.3620000000000001</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>2.0579999999999998</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>2.0219999999999998</v>
       </c>
       <c r="AF41" s="3">
-        <v>2.3620000000000001</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="AG41" s="3">
-        <v>2.3439999999999999</v>
+        <v>2.0819999999999999</v>
       </c>
       <c r="AH41" s="3">
-        <v>2.13</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="AI41" s="3">
-        <v>2.0579999999999998</v>
+        <v>1.827</v>
       </c>
       <c r="AJ41" s="3">
-        <v>2.0219999999999998</v>
-      </c>
-      <c r="AK41" s="3">
-        <v>1.9510000000000001</v>
-      </c>
-      <c r="AL41" s="3">
-        <v>2.0819999999999999</v>
-      </c>
-      <c r="AM41" s="3">
-        <v>1.9590000000000001</v>
-      </c>
-      <c r="AN41" s="3">
-        <v>1.827</v>
-      </c>
-      <c r="AO41" s="3">
         <v>1.7669999999999999</v>
       </c>
-      <c r="AP41" s="3" t="s">
+      <c r="AK41" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -5065,56 +4555,41 @@
       <c r="Z42" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE42" s="3" t="s">
-        <v>27</v>
+      <c r="AA42" s="3">
+        <v>80.147000000000006</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>77.876000000000005</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>77.578000000000003</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>78.206000000000003</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>84.019000000000005</v>
       </c>
       <c r="AF42" s="3">
-        <v>80.147000000000006</v>
+        <v>88.655000000000001</v>
       </c>
       <c r="AG42" s="3">
-        <v>77.876000000000005</v>
+        <v>90.888999999999996</v>
       </c>
       <c r="AH42" s="3">
-        <v>77.578000000000003</v>
+        <v>85.822000000000003</v>
       </c>
       <c r="AI42" s="3">
-        <v>78.206000000000003</v>
+        <v>86.138999999999996</v>
       </c>
       <c r="AJ42" s="3">
-        <v>84.019000000000005</v>
-      </c>
-      <c r="AK42" s="3">
-        <v>88.655000000000001</v>
-      </c>
-      <c r="AL42" s="3">
-        <v>90.888999999999996</v>
-      </c>
-      <c r="AM42" s="3">
-        <v>85.822000000000003</v>
-      </c>
-      <c r="AN42" s="3">
-        <v>86.138999999999996</v>
-      </c>
-      <c r="AO42" s="3">
         <v>84.691000000000003</v>
       </c>
-      <c r="AP42" s="3" t="s">
+      <c r="AK42" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -5193,56 +4668,41 @@
       <c r="Z43" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE43" s="3" t="s">
-        <v>27</v>
+      <c r="AA43" s="3">
+        <v>12.23</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>11.914</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>11.664999999999999</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>11.119</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>10.93</v>
       </c>
       <c r="AF43" s="3">
-        <v>12.23</v>
+        <v>10.627000000000001</v>
       </c>
       <c r="AG43" s="3">
-        <v>11.914</v>
+        <v>10.545999999999999</v>
       </c>
       <c r="AH43" s="3">
-        <v>11.664999999999999</v>
+        <v>10.473000000000001</v>
       </c>
       <c r="AI43" s="3">
-        <v>11.119</v>
+        <v>10.426</v>
       </c>
       <c r="AJ43" s="3">
-        <v>10.93</v>
-      </c>
-      <c r="AK43" s="3">
-        <v>10.627000000000001</v>
-      </c>
-      <c r="AL43" s="3">
-        <v>10.545999999999999</v>
-      </c>
-      <c r="AM43" s="3">
-        <v>10.473000000000001</v>
-      </c>
-      <c r="AN43" s="3">
-        <v>10.426</v>
-      </c>
-      <c r="AO43" s="3">
         <v>10.276</v>
       </c>
-      <c r="AP43" s="3" t="s">
+      <c r="AK43" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -5321,56 +4781,41 @@
       <c r="Z44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE44" s="3" t="s">
-        <v>27</v>
+      <c r="AA44" s="3">
+        <v>7.5170000000000003</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>7.4130000000000003</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>7.7409999999999997</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>7.6859999999999999</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>7.53</v>
       </c>
       <c r="AF44" s="3">
-        <v>7.5170000000000003</v>
+        <v>7.569</v>
       </c>
       <c r="AG44" s="3">
-        <v>7.4130000000000003</v>
+        <v>7.8390000000000004</v>
       </c>
       <c r="AH44" s="3">
-        <v>7.7409999999999997</v>
+        <v>7.7619999999999996</v>
       </c>
       <c r="AI44" s="3">
-        <v>7.6859999999999999</v>
+        <v>8.0039999999999996</v>
       </c>
       <c r="AJ44" s="3">
-        <v>7.53</v>
-      </c>
-      <c r="AK44" s="3">
-        <v>7.569</v>
-      </c>
-      <c r="AL44" s="3">
-        <v>7.8390000000000004</v>
-      </c>
-      <c r="AM44" s="3">
-        <v>7.7619999999999996</v>
-      </c>
-      <c r="AN44" s="3">
-        <v>8.0039999999999996</v>
-      </c>
-      <c r="AO44" s="3">
         <v>7.8920000000000003</v>
       </c>
-      <c r="AP44" s="3" t="s">
+      <c r="AK44" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -5449,56 +4894,41 @@
       <c r="Z45" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE45" s="3" t="s">
-        <v>27</v>
+      <c r="AA45" s="3">
+        <v>23.744</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>23.497</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>22.2</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>20.634</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>21.815999999999999</v>
       </c>
       <c r="AF45" s="3">
-        <v>23.744</v>
+        <v>23.443000000000001</v>
       </c>
       <c r="AG45" s="3">
-        <v>23.497</v>
+        <v>24.632999999999999</v>
       </c>
       <c r="AH45" s="3">
-        <v>22.2</v>
+        <v>24.099</v>
       </c>
       <c r="AI45" s="3">
-        <v>20.634</v>
+        <v>25.74</v>
       </c>
       <c r="AJ45" s="3">
-        <v>21.815999999999999</v>
-      </c>
-      <c r="AK45" s="3">
-        <v>23.443000000000001</v>
-      </c>
-      <c r="AL45" s="3">
-        <v>24.632999999999999</v>
-      </c>
-      <c r="AM45" s="3">
-        <v>24.099</v>
-      </c>
-      <c r="AN45" s="3">
-        <v>25.74</v>
-      </c>
-      <c r="AO45" s="3">
         <v>24.236000000000001</v>
       </c>
-      <c r="AP45" s="3" t="s">
+      <c r="AK45" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -5577,56 +5007,41 @@
       <c r="Z46" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE46" s="3" t="s">
-        <v>27</v>
+      <c r="AA46" s="3">
+        <v>92.611000000000004</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>93.662999999999997</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>91.274000000000001</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>91.882999999999996</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>94.400999999999996</v>
       </c>
       <c r="AF46" s="3">
-        <v>92.611000000000004</v>
+        <v>101.705</v>
       </c>
       <c r="AG46" s="3">
-        <v>93.662999999999997</v>
+        <v>104.357</v>
       </c>
       <c r="AH46" s="3">
-        <v>91.274000000000001</v>
+        <v>99.256</v>
       </c>
       <c r="AI46" s="3">
-        <v>91.882999999999996</v>
+        <v>106.233</v>
       </c>
       <c r="AJ46" s="3">
-        <v>94.400999999999996</v>
-      </c>
-      <c r="AK46" s="3">
-        <v>101.705</v>
-      </c>
-      <c r="AL46" s="3">
-        <v>104.357</v>
-      </c>
-      <c r="AM46" s="3">
-        <v>99.256</v>
-      </c>
-      <c r="AN46" s="3">
-        <v>106.233</v>
-      </c>
-      <c r="AO46" s="3">
         <v>110.72</v>
       </c>
-      <c r="AP46" s="3" t="s">
+      <c r="AK46" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -5705,56 +5120,41 @@
       <c r="Z47" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE47" s="3" t="s">
-        <v>27</v>
+      <c r="AA47" s="3">
+        <v>38.057000000000002</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>37.450000000000003</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>36.561999999999998</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>35.831000000000003</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>35.057000000000002</v>
       </c>
       <c r="AF47" s="3">
-        <v>38.057000000000002</v>
+        <v>35.334000000000003</v>
       </c>
       <c r="AG47" s="3">
-        <v>37.450000000000003</v>
+        <v>36.570999999999998</v>
       </c>
       <c r="AH47" s="3">
-        <v>36.561999999999998</v>
+        <v>34.127000000000002</v>
       </c>
       <c r="AI47" s="3">
-        <v>35.831000000000003</v>
+        <v>35.006999999999998</v>
       </c>
       <c r="AJ47" s="3">
-        <v>35.057000000000002</v>
-      </c>
-      <c r="AK47" s="3">
-        <v>35.334000000000003</v>
-      </c>
-      <c r="AL47" s="3">
-        <v>36.570999999999998</v>
-      </c>
-      <c r="AM47" s="3">
-        <v>34.127000000000002</v>
-      </c>
-      <c r="AN47" s="3">
-        <v>35.006999999999998</v>
-      </c>
-      <c r="AO47" s="3">
         <v>35.536999999999999</v>
       </c>
-      <c r="AP47" s="3" t="s">
+      <c r="AK47" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -5833,56 +5233,41 @@
       <c r="Z48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE48" s="3" t="s">
-        <v>27</v>
+      <c r="AA48" s="3">
+        <v>13.077</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>12.414</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>12.236000000000001</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>12.348000000000001</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>12.504</v>
       </c>
       <c r="AF48" s="3">
-        <v>13.077</v>
+        <v>13.29</v>
       </c>
       <c r="AG48" s="3">
-        <v>12.414</v>
+        <v>14.509</v>
       </c>
       <c r="AH48" s="3">
-        <v>12.236000000000001</v>
+        <v>9.6910000000000007</v>
       </c>
       <c r="AI48" s="3">
-        <v>12.348000000000001</v>
+        <v>12.311999999999999</v>
       </c>
       <c r="AJ48" s="3">
-        <v>12.504</v>
-      </c>
-      <c r="AK48" s="3">
-        <v>13.29</v>
-      </c>
-      <c r="AL48" s="3">
-        <v>14.509</v>
-      </c>
-      <c r="AM48" s="3">
-        <v>9.6910000000000007</v>
-      </c>
-      <c r="AN48" s="3">
-        <v>12.311999999999999</v>
-      </c>
-      <c r="AO48" s="3">
         <v>12.988</v>
       </c>
-      <c r="AP48" s="3" t="s">
+      <c r="AK48" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -5961,56 +5346,41 @@
       <c r="Z49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE49" s="3" t="s">
-        <v>27</v>
+      <c r="AA49" s="3">
+        <v>17.699000000000002</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>18.373000000000001</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>17.568999999999999</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>18.087</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>18.498999999999999</v>
       </c>
       <c r="AF49" s="3">
-        <v>17.699000000000002</v>
+        <v>19.516999999999999</v>
       </c>
       <c r="AG49" s="3">
-        <v>18.373000000000001</v>
+        <v>21.545000000000002</v>
       </c>
       <c r="AH49" s="3">
-        <v>17.568999999999999</v>
+        <v>23.747</v>
       </c>
       <c r="AI49" s="3">
-        <v>18.087</v>
+        <v>27.48</v>
       </c>
       <c r="AJ49" s="3">
-        <v>18.498999999999999</v>
-      </c>
-      <c r="AK49" s="3">
-        <v>19.516999999999999</v>
-      </c>
-      <c r="AL49" s="3">
-        <v>21.545000000000002</v>
-      </c>
-      <c r="AM49" s="3">
-        <v>23.747</v>
-      </c>
-      <c r="AN49" s="3">
-        <v>27.48</v>
-      </c>
-      <c r="AO49" s="3">
         <v>28.661000000000001</v>
       </c>
-      <c r="AP49" s="3" t="s">
+      <c r="AK49" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -6089,56 +5459,41 @@
       <c r="Z50" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE50" s="3" t="s">
-        <v>27</v>
+      <c r="AA50" s="3">
+        <v>14.834</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>13.949</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>13.68</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>12.068</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>12.362</v>
       </c>
       <c r="AF50" s="3">
-        <v>14.834</v>
+        <v>12.584</v>
       </c>
       <c r="AG50" s="3">
-        <v>13.949</v>
+        <v>12.791</v>
       </c>
       <c r="AH50" s="3">
-        <v>13.68</v>
+        <v>12.853999999999999</v>
       </c>
       <c r="AI50" s="3">
-        <v>12.068</v>
+        <v>13.227</v>
       </c>
       <c r="AJ50" s="3">
-        <v>12.362</v>
-      </c>
-      <c r="AK50" s="3">
-        <v>12.584</v>
-      </c>
-      <c r="AL50" s="3">
-        <v>12.791</v>
-      </c>
-      <c r="AM50" s="3">
-        <v>12.853999999999999</v>
-      </c>
-      <c r="AN50" s="3">
-        <v>13.227</v>
-      </c>
-      <c r="AO50" s="3">
         <v>13.141999999999999</v>
       </c>
-      <c r="AP50" s="3" t="s">
+      <c r="AK50" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -6217,56 +5572,41 @@
       <c r="Z51" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE51" s="3" t="s">
-        <v>27</v>
+      <c r="AA51" s="3">
+        <v>12.166</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>12.157999999999999</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>11.137</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>11.625999999999999</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>11.314</v>
       </c>
       <c r="AF51" s="3">
-        <v>12.166</v>
+        <v>10.973000000000001</v>
       </c>
       <c r="AG51" s="3">
-        <v>12.157999999999999</v>
+        <v>11.994999999999999</v>
       </c>
       <c r="AH51" s="3">
-        <v>11.137</v>
+        <v>11.744999999999999</v>
       </c>
       <c r="AI51" s="3">
-        <v>11.625999999999999</v>
+        <v>11.035</v>
       </c>
       <c r="AJ51" s="3">
-        <v>11.314</v>
-      </c>
-      <c r="AK51" s="3">
-        <v>10.973000000000001</v>
-      </c>
-      <c r="AL51" s="3">
-        <v>11.994999999999999</v>
-      </c>
-      <c r="AM51" s="3">
-        <v>11.744999999999999</v>
-      </c>
-      <c r="AN51" s="3">
-        <v>11.035</v>
-      </c>
-      <c r="AO51" s="3">
         <v>10.622999999999999</v>
       </c>
-      <c r="AP51" s="3" t="s">
+      <c r="AK51" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -6345,56 +5685,41 @@
       <c r="Z52" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE52" s="3" t="s">
-        <v>27</v>
+      <c r="AA52" s="3">
+        <v>18.248000000000001</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>17.34</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>15.516999999999999</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>15.441000000000001</v>
       </c>
       <c r="AF52" s="3">
-        <v>18.248000000000001</v>
+        <v>15.423999999999999</v>
       </c>
       <c r="AG52" s="3">
-        <v>17.34</v>
+        <v>13.933</v>
       </c>
       <c r="AH52" s="3">
-        <v>17.350000000000001</v>
+        <v>13.061999999999999</v>
       </c>
       <c r="AI52" s="3">
-        <v>15.516999999999999</v>
+        <v>13.366</v>
       </c>
       <c r="AJ52" s="3">
-        <v>15.441000000000001</v>
-      </c>
-      <c r="AK52" s="3">
-        <v>15.423999999999999</v>
-      </c>
-      <c r="AL52" s="3">
-        <v>13.933</v>
-      </c>
-      <c r="AM52" s="3">
-        <v>13.061999999999999</v>
-      </c>
-      <c r="AN52" s="3">
-        <v>13.366</v>
-      </c>
-      <c r="AO52" s="3">
         <v>12.929</v>
       </c>
-      <c r="AP52" s="3" t="s">
+      <c r="AK52" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -6473,56 +5798,41 @@
       <c r="Z53" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE53" s="3" t="s">
-        <v>27</v>
+      <c r="AA53" s="3">
+        <v>11.763</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>11.021000000000001</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>10.856999999999999</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>11.009</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>11.707000000000001</v>
       </c>
       <c r="AF53" s="3">
-        <v>11.763</v>
+        <v>12.749000000000001</v>
       </c>
       <c r="AG53" s="3">
-        <v>11.021000000000001</v>
+        <v>13.260999999999999</v>
       </c>
       <c r="AH53" s="3">
-        <v>10.856999999999999</v>
+        <v>11.766</v>
       </c>
       <c r="AI53" s="3">
-        <v>11.009</v>
+        <v>12.423</v>
       </c>
       <c r="AJ53" s="3">
-        <v>11.707000000000001</v>
-      </c>
-      <c r="AK53" s="3">
-        <v>12.749000000000001</v>
-      </c>
-      <c r="AL53" s="3">
-        <v>13.260999999999999</v>
-      </c>
-      <c r="AM53" s="3">
-        <v>11.766</v>
-      </c>
-      <c r="AN53" s="3">
-        <v>12.423</v>
-      </c>
-      <c r="AO53" s="3">
         <v>12.717000000000001</v>
       </c>
-      <c r="AP53" s="3" t="s">
+      <c r="AK53" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -6601,56 +5911,41 @@
       <c r="Z54" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE54" s="3" t="s">
-        <v>27</v>
+      <c r="AA54" s="3">
+        <v>51.115000000000002</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>51.86</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>51.820999999999998</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>51.661999999999999</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>49.594999999999999</v>
       </c>
       <c r="AF54" s="3">
-        <v>51.115000000000002</v>
+        <v>49.05</v>
       </c>
       <c r="AG54" s="3">
-        <v>51.86</v>
+        <v>49.119</v>
       </c>
       <c r="AH54" s="3">
-        <v>51.820999999999998</v>
+        <v>49.314</v>
       </c>
       <c r="AI54" s="3">
-        <v>51.661999999999999</v>
+        <v>49.906999999999996</v>
       </c>
       <c r="AJ54" s="3">
-        <v>49.594999999999999</v>
-      </c>
-      <c r="AK54" s="3">
-        <v>49.05</v>
-      </c>
-      <c r="AL54" s="3">
-        <v>49.119</v>
-      </c>
-      <c r="AM54" s="3">
-        <v>49.314</v>
-      </c>
-      <c r="AN54" s="3">
-        <v>49.906999999999996</v>
-      </c>
-      <c r="AO54" s="3">
         <v>49.011000000000003</v>
       </c>
-      <c r="AP54" s="3" t="s">
+      <c r="AK54" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -6729,56 +6024,41 @@
       <c r="Z55" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE55" s="3" t="s">
-        <v>27</v>
+      <c r="AA55" s="3">
+        <v>106.188</v>
+      </c>
+      <c r="AB55" s="3">
+        <v>103.387</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>101.83199999999999</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>99.472999999999999</v>
+      </c>
+      <c r="AE55" s="3">
+        <v>97.387</v>
       </c>
       <c r="AF55" s="3">
-        <v>106.188</v>
+        <v>95.917000000000002</v>
       </c>
       <c r="AG55" s="3">
-        <v>103.387</v>
+        <v>95.5</v>
       </c>
       <c r="AH55" s="3">
-        <v>101.83199999999999</v>
+        <v>93.501000000000005</v>
       </c>
       <c r="AI55" s="3">
-        <v>99.472999999999999</v>
+        <v>93.236000000000004</v>
       </c>
       <c r="AJ55" s="3">
-        <v>97.387</v>
-      </c>
-      <c r="AK55" s="3">
-        <v>95.917000000000002</v>
-      </c>
-      <c r="AL55" s="3">
-        <v>95.5</v>
-      </c>
-      <c r="AM55" s="3">
-        <v>93.501000000000005</v>
-      </c>
-      <c r="AN55" s="3">
-        <v>93.236000000000004</v>
-      </c>
-      <c r="AO55" s="3">
         <v>91.924000000000007</v>
       </c>
-      <c r="AP55" s="3" t="s">
+      <c r="AK55" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -6857,56 +6137,41 @@
       <c r="Z56" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE56" s="3" t="s">
-        <v>27</v>
+      <c r="AA56" s="3">
+        <v>59.220999999999997</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>59.826999999999998</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>59.164999999999999</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>59.042999999999999</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>59.654000000000003</v>
       </c>
       <c r="AF56" s="3">
-        <v>59.220999999999997</v>
+        <v>59.167000000000002</v>
       </c>
       <c r="AG56" s="3">
-        <v>59.826999999999998</v>
+        <v>60.374000000000002</v>
       </c>
       <c r="AH56" s="3">
-        <v>59.164999999999999</v>
+        <v>60.365000000000002</v>
       </c>
       <c r="AI56" s="3">
-        <v>59.042999999999999</v>
+        <v>64.088999999999999</v>
       </c>
       <c r="AJ56" s="3">
-        <v>59.654000000000003</v>
-      </c>
-      <c r="AK56" s="3">
-        <v>59.167000000000002</v>
-      </c>
-      <c r="AL56" s="3">
-        <v>60.374000000000002</v>
-      </c>
-      <c r="AM56" s="3">
-        <v>60.365000000000002</v>
-      </c>
-      <c r="AN56" s="3">
-        <v>64.088999999999999</v>
-      </c>
-      <c r="AO56" s="3">
         <v>64.334999999999994</v>
       </c>
-      <c r="AP56" s="3" t="s">
+      <c r="AK56" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -6985,56 +6250,41 @@
       <c r="Z57" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE57" s="3" t="s">
-        <v>27</v>
+      <c r="AA57" s="3">
+        <v>13.922000000000001</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>13.254</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>13.374000000000001</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>12.686999999999999</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>12.048999999999999</v>
       </c>
       <c r="AF57" s="3">
-        <v>13.922000000000001</v>
+        <v>12.212999999999999</v>
       </c>
       <c r="AG57" s="3">
-        <v>13.254</v>
+        <v>12.33</v>
       </c>
       <c r="AH57" s="3">
-        <v>13.374000000000001</v>
+        <v>11.803000000000001</v>
       </c>
       <c r="AI57" s="3">
-        <v>12.686999999999999</v>
+        <v>11.805</v>
       </c>
       <c r="AJ57" s="3">
-        <v>12.048999999999999</v>
-      </c>
-      <c r="AK57" s="3">
-        <v>12.212999999999999</v>
-      </c>
-      <c r="AL57" s="3">
-        <v>12.33</v>
-      </c>
-      <c r="AM57" s="3">
-        <v>11.803000000000001</v>
-      </c>
-      <c r="AN57" s="3">
-        <v>11.805</v>
-      </c>
-      <c r="AO57" s="3">
         <v>12.095000000000001</v>
       </c>
-      <c r="AP57" s="3" t="s">
+      <c r="AK57" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -7113,56 +6363,41 @@
       <c r="Z58" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE58" s="3" t="s">
-        <v>27</v>
+      <c r="AA58" s="3">
+        <v>7.0789999999999997</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>6.5209999999999999</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>6.4690000000000003</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>6.556</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>5.0570000000000004</v>
       </c>
       <c r="AF58" s="3">
-        <v>7.0789999999999997</v>
+        <v>5.1950000000000003</v>
       </c>
       <c r="AG58" s="3">
-        <v>6.5209999999999999</v>
+        <v>6.49</v>
       </c>
       <c r="AH58" s="3">
-        <v>6.4690000000000003</v>
+        <v>6.0369999999999999</v>
       </c>
       <c r="AI58" s="3">
-        <v>6.556</v>
+        <v>5.9219999999999997</v>
       </c>
       <c r="AJ58" s="3">
-        <v>5.0570000000000004</v>
-      </c>
-      <c r="AK58" s="3">
-        <v>5.1950000000000003</v>
-      </c>
-      <c r="AL58" s="3">
-        <v>6.49</v>
-      </c>
-      <c r="AM58" s="3">
-        <v>6.0369999999999999</v>
-      </c>
-      <c r="AN58" s="3">
-        <v>5.9219999999999997</v>
-      </c>
-      <c r="AO58" s="3">
         <v>6.1890000000000001</v>
       </c>
-      <c r="AP58" s="3" t="s">
+      <c r="AK58" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>55</v>
       </c>
@@ -7170,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
         <v>56</v>
       </c>
